--- a/APM files/136425664/Book1.xlsx
+++ b/APM files/136425664/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/136425664/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCA026-F5D7-1B41-ADD3-F28BF4D80251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695CDFF-2D78-2741-A72C-6C6D6DE1C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{0A490DB9-727E-2042-A945-21F4C61F1F52}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0A490DB9-727E-2042-A945-21F4C61F1F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
